--- a/CPU/指令控制码.xlsx
+++ b/CPU/指令控制码.xlsx
@@ -296,15 +296,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,21 +315,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,14 +329,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -353,28 +336,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,7 +365,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,8 +386,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -427,18 +418,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,15 +448,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,13 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +483,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,25 +549,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,13 +603,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,91 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,17 +659,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,54 +684,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,11 +705,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,137 +776,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,10 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1254,8 +1243,8 @@
   <sheetPr/>
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1365,7 +1354,7 @@
         <v>22</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f>D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;P2&amp;Q2</f>
+        <f>D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;T2&amp;Q2</f>
         <v>00000000000000000010101</v>
       </c>
       <c r="P2">
@@ -1382,7 +1371,7 @@
         <f>BIN2HEX(R2)</f>
         <v>15</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
         <v>1</v>
       </c>
       <c r="U2" t="s">
@@ -1432,8 +1421,8 @@
       <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="1" t="str">
-        <f>D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;P3&amp;Q3</f>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O29" si="0">D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;T3&amp;Q3</f>
         <v>00000001000000010010101</v>
       </c>
       <c r="P3">
@@ -1442,7 +1431,7 @@
       <c r="Q3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="5" t="e">
+      <c r="R3" s="4" t="e">
         <f>V</f>
         <v>#NAME?</v>
       </c>
@@ -1450,7 +1439,7 @@
         <f>BIN2HEX(R3)</f>
         <v>#NAME?</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>1</v>
       </c>
       <c r="U3" t="s">
@@ -1500,8 +1489,8 @@
       <c r="N4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="str">
-        <f>D4&amp;E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;P4&amp;Q4</f>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000001000000010010101</v>
       </c>
       <c r="P4">
@@ -1511,14 +1500,14 @@
         <v>24</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R3:R8" si="0">VALUE(O4)</f>
+        <f t="shared" ref="R3:R8" si="1">VALUE(O4)</f>
         <v>1000000010010100</v>
       </c>
       <c r="S4" t="e">
-        <f t="shared" ref="S3:S8" si="1">BIN2HEX(R4)</f>
+        <f t="shared" ref="S3:S8" si="2">BIN2HEX(R4)</f>
         <v>#NUM!</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>1</v>
       </c>
       <c r="U4" t="s">
@@ -1568,8 +1557,8 @@
       <c r="N5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="1" t="str">
-        <f>D5&amp;E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;P5&amp;Q5</f>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000000000000000010101</v>
       </c>
       <c r="P5">
@@ -1579,14 +1568,14 @@
         <v>24</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10101</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>1</v>
       </c>
       <c r="U5" t="s">
@@ -1636,8 +1625,8 @@
       <c r="N6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="1" t="str">
-        <f>D6&amp;E6&amp;F6&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;P6&amp;Q6</f>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000000000000000010111</v>
       </c>
       <c r="P6">
@@ -1647,14 +1636,14 @@
         <v>35</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10111</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>1</v>
       </c>
       <c r="U6" t="s">
@@ -1704,8 +1693,8 @@
       <c r="N7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="1" t="str">
-        <f t="shared" ref="O7:O29" si="2">D7&amp;E7&amp;F7&amp;G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;P7&amp;Q7</f>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000001001010010010111</v>
       </c>
       <c r="P7">
@@ -1715,14 +1704,14 @@
         <v>35</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1001010010010110</v>
       </c>
       <c r="S7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>1</v>
       </c>
       <c r="U7" t="s">
@@ -1772,8 +1761,8 @@
       <c r="N8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00001000000010010010000</v>
       </c>
       <c r="P8">
@@ -1783,14 +1772,14 @@
         <v>41</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.00000001001001e+18</v>
       </c>
       <c r="S8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>1</v>
       </c>
       <c r="U8" t="s">
@@ -1840,8 +1829,8 @@
       <c r="N9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00001000000010010010001</v>
       </c>
       <c r="P9">
@@ -1858,7 +1847,7 @@
         <f t="shared" ref="S9:S29" si="4">BIN2HEX(R9)</f>
         <v>#NUM!</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>1</v>
       </c>
       <c r="U9" t="s">
@@ -1908,8 +1897,8 @@
       <c r="N10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00001000000010010010010</v>
       </c>
       <c r="P10">
@@ -1926,7 +1915,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>1</v>
       </c>
       <c r="U10" t="s">
@@ -1976,8 +1965,8 @@
       <c r="N11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000000000000000010110</v>
       </c>
       <c r="P11">
@@ -1994,7 +1983,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>1</v>
       </c>
       <c r="U11" t="s">
@@ -2044,8 +2033,8 @@
       <c r="N12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000000000000000011000</v>
       </c>
       <c r="P12">
@@ -2062,7 +2051,7 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>1</v>
       </c>
       <c r="U12" t="s">
@@ -2112,8 +2101,8 @@
       <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000001001010010011000</v>
       </c>
       <c r="P13">
@@ -2130,7 +2119,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>1</v>
       </c>
       <c r="U13" t="s">
@@ -2180,8 +2169,8 @@
       <c r="N14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000000000000000011010</v>
       </c>
       <c r="P14">
@@ -2198,7 +2187,7 @@
         <f t="shared" si="4"/>
         <v>1A</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>1</v>
       </c>
       <c r="U14" t="s">
@@ -2248,8 +2237,8 @@
       <c r="N15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000001010000011010101</v>
       </c>
       <c r="P15">
@@ -2266,7 +2255,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>1</v>
       </c>
       <c r="U15" t="s">
@@ -2316,9 +2305,9 @@
       <c r="N16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000000000000011110101</v>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>00000000000000011100101</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -2328,13 +2317,13 @@
       </c>
       <c r="R16">
         <f t="shared" si="3"/>
-        <v>11110101</v>
+        <v>11100101</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="4"/>
-        <v>F5</v>
-      </c>
-      <c r="T16" s="4">
+        <v>E5</v>
+      </c>
+      <c r="T16" s="3">
         <v>0</v>
       </c>
       <c r="U16" t="s">
@@ -2384,9 +2373,9 @@
       <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>01000000000100000010110</v>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01000000000100000000110</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -2402,7 +2391,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" t="s">
@@ -2452,9 +2441,9 @@
       <c r="N18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>01000000000100000010110</v>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01000000000100000000110</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -2470,7 +2459,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" t="s">
@@ -2520,8 +2509,8 @@
       <c r="N19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000000000000000011011</v>
       </c>
       <c r="P19">
@@ -2538,7 +2527,7 @@
         <f t="shared" si="4"/>
         <v>1B</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <v>1</v>
       </c>
       <c r="U19" t="s">
@@ -2588,8 +2577,8 @@
       <c r="N20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000001000000010011011</v>
       </c>
       <c r="P20">
@@ -2606,7 +2595,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>1</v>
       </c>
       <c r="U20" t="s">
@@ -2656,8 +2645,8 @@
       <c r="N21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000000000000000011100</v>
       </c>
       <c r="P21">
@@ -2674,7 +2663,7 @@
         <f t="shared" si="4"/>
         <v>1C</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <v>1</v>
       </c>
       <c r="U21" t="s">
@@ -2724,8 +2713,8 @@
       <c r="N22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>10000000000110000000000</v>
       </c>
       <c r="P22">
@@ -2742,7 +2731,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" t="s">
@@ -2792,9 +2781,9 @@
       <c r="N23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>10000010000111100000101</v>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>10000010000111100010101</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2810,7 +2799,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="3">
         <v>1</v>
       </c>
       <c r="U23" t="s">
@@ -2860,9 +2849,9 @@
       <c r="N24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>11000000000000000010000</v>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>11000000000000000000000</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -2878,7 +2867,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" t="s">
@@ -2928,9 +2917,9 @@
       <c r="N25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00010100001000010010110</v>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>00010100001000010000110</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -2946,7 +2935,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>0</v>
       </c>
       <c r="U25" t="s">
@@ -2996,8 +2985,8 @@
       <c r="N26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000000000000000010110</v>
       </c>
       <c r="P26">
@@ -3014,7 +3003,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="3">
         <v>1</v>
       </c>
       <c r="U26" t="s">
@@ -3064,8 +3053,8 @@
       <c r="N27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O27" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000001001010010011010</v>
       </c>
       <c r="P27">
@@ -3082,7 +3071,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="3">
         <v>1</v>
       </c>
       <c r="U27" t="s">
@@ -3132,8 +3121,8 @@
       <c r="N28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>00000001100000011010101</v>
       </c>
       <c r="P28">
@@ -3150,7 +3139,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <v>1</v>
       </c>
       <c r="U28" t="s">
@@ -3200,9 +3189,9 @@
       <c r="N29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>01000000000100110010110</v>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>01000000000100110000110</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -3218,7 +3207,7 @@
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" t="s">

--- a/CPU/指令控制码.xlsx
+++ b/CPU/指令控制码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>指令</t>
   </si>
@@ -61,13 +61,16 @@
     <t>指令控制码</t>
   </si>
   <si>
+    <t>不管</t>
+  </si>
+  <si>
+    <t>ALUOP</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
     <t>WE</t>
-  </si>
-  <si>
-    <t>ALUOP</t>
-  </si>
-  <si>
-    <t>0x</t>
   </si>
   <si>
     <t>Add</t>
@@ -297,11 +300,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -309,87 +312,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,9 +331,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,7 +361,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,9 +452,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +468,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,13 +552,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,25 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,31 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,85 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,35 +659,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -699,6 +673,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +736,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -764,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,133 +779,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,8 +1246,8 @@
   <sheetPr/>
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1254,7 +1257,7 @@
     <col min="18" max="18" width="21.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1308,50 +1311,53 @@
       </c>
       <c r="S1" t="s">
         <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="2" t="str">
         <f>D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;T2&amp;Q2</f>
@@ -1361,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2">
         <f>VALUE(O2)</f>
@@ -1375,51 +1381,51 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="2" t="str">
         <f t="shared" ref="O3:O29" si="0">D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;T3&amp;Q3</f>
@@ -1429,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" s="4" t="e">
         <f>V</f>
@@ -1443,51 +1449,51 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1497,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R3:R8" si="1">VALUE(O4)</f>
@@ -1511,51 +1517,51 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1565,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
@@ -1579,51 +1585,51 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1633,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
@@ -1647,51 +1653,51 @@
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1701,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
@@ -1715,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1769,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
@@ -1783,51 +1789,51 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1837,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R9">
         <f t="shared" ref="R9:R29" si="3">VALUE(O9)</f>
@@ -1851,51 +1857,51 @@
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1905,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
@@ -1919,51 +1925,51 @@
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1973,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
@@ -1987,51 +1993,51 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2041,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
@@ -2055,51 +2061,51 @@
         <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2109,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
@@ -2123,51 +2129,51 @@
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2177,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R14">
         <f t="shared" si="3"/>
@@ -2191,51 +2197,51 @@
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2245,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R15">
         <f t="shared" si="3"/>
@@ -2259,51 +2265,51 @@
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="N16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2313,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R16">
         <f t="shared" si="3"/>
@@ -2327,51 +2333,51 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2381,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
@@ -2395,51 +2401,51 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2449,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
@@ -2463,51 +2469,51 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2517,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
@@ -2531,51 +2537,51 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2585,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R20">
         <f t="shared" si="3"/>
@@ -2599,51 +2605,51 @@
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2653,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21">
         <f t="shared" si="3"/>
@@ -2667,51 +2673,51 @@
         <v>1</v>
       </c>
       <c r="U21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2721,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R22">
         <f t="shared" si="3"/>
@@ -2735,51 +2741,51 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2789,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R23">
         <f t="shared" si="3"/>
@@ -2803,51 +2809,51 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2857,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R24">
         <f t="shared" si="3"/>
@@ -2871,51 +2877,51 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2925,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
@@ -2939,51 +2945,51 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2993,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
@@ -3007,51 +3013,51 @@
         <v>1</v>
       </c>
       <c r="U26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3061,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R27">
         <f t="shared" si="3"/>
@@ -3075,51 +3081,51 @@
         <v>1</v>
       </c>
       <c r="U27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3129,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R28">
         <f t="shared" si="3"/>
@@ -3143,51 +3149,51 @@
         <v>1</v>
       </c>
       <c r="U28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3197,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R29">
         <f t="shared" si="3"/>
@@ -3211,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
